--- a/resultados/pretratamiento-tablas-control/pretrat-italia-elo-facil-dificultad.xlsx
+++ b/resultados/pretratamiento-tablas-control/pretrat-italia-elo-facil-dificultad.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="1139">
   <si>
     <t>Pretrat</t>
   </si>
@@ -121,7 +121,7 @@
     <t>44.188 (149)</t>
   </si>
   <si>
-    <t>9.597 (149)</t>
+    <t>9.591 (149)</t>
   </si>
   <si>
     <t>9.738 (149)</t>
@@ -283,7 +283,7 @@
     <t>43.508 (118)</t>
   </si>
   <si>
-    <t>9.678 (118)</t>
+    <t>9.669 (118)</t>
   </si>
   <si>
     <t>10.008 (118)</t>
@@ -439,7 +439,7 @@
     <t>43.705 (95)</t>
   </si>
   <si>
-    <t>9.737 (95)</t>
+    <t>9.726 (95)</t>
   </si>
   <si>
     <t>10.558 (95)</t>
@@ -601,7 +601,7 @@
     <t>43.263 (76)</t>
   </si>
   <si>
-    <t>10.158 (76)</t>
+    <t>10.145 (76)</t>
   </si>
   <si>
     <t>10.289 (76)</t>
@@ -655,7 +655,7 @@
     <t>45.533 (122)</t>
   </si>
   <si>
-    <t>9.025 (122)</t>
+    <t>9.033 (122)</t>
   </si>
   <si>
     <t>8.943 (122)</t>
@@ -709,7 +709,7 @@
     <t>49.294 (51)</t>
   </si>
   <si>
-    <t>9.784 (51)</t>
+    <t>9.765 (51)</t>
   </si>
   <si>
     <t>8.588 (51)</t>
@@ -865,7 +865,7 @@
     <t>49.571 (98)</t>
   </si>
   <si>
-    <t>8.969 (98)</t>
+    <t>8.959 (98)</t>
   </si>
   <si>
     <t>8.388 (98)</t>
@@ -1027,7 +1027,7 @@
     <t>47.328 (119)</t>
   </si>
   <si>
-    <t>9.529 (119)</t>
+    <t>9.521 (119)</t>
   </si>
   <si>
     <t>9.101 (119)</t>
@@ -1228,7 +1228,7 @@
     <t>46.336 (116)</t>
   </si>
   <si>
-    <t>9.543 (116)</t>
+    <t>9.534 (116)</t>
   </si>
   <si>
     <t>9.069 (116)</t>
@@ -1492,7 +1492,7 @@
     <t>48.171 (82)</t>
   </si>
   <si>
-    <t>8.793 (82)</t>
+    <t>8.78 (82)</t>
   </si>
   <si>
     <t>7.988 (82)</t>
@@ -1654,7 +1654,7 @@
     <t>49.115 (104)</t>
   </si>
   <si>
-    <t>8.875 (104)</t>
+    <t>8.865 (104)</t>
   </si>
   <si>
     <t>8.433 (104)</t>
@@ -1909,7 +1909,7 @@
     <t>54.167 (54)</t>
   </si>
   <si>
-    <t>8.537 (54)</t>
+    <t>8.519 (54)</t>
   </si>
   <si>
     <t>7.259 (54)</t>
@@ -2119,7 +2119,7 @@
     <t>51.447 (85)</t>
   </si>
   <si>
-    <t>8.565 (85)</t>
+    <t>8.553 (85)</t>
   </si>
   <si>
     <t>7.176 (85)</t>
@@ -2329,7 +2329,7 @@
     <t>45.262 (80)</t>
   </si>
   <si>
-    <t>9.6 (80)</t>
+    <t>9.612 (80)</t>
   </si>
   <si>
     <t>8.7 (80)</t>
@@ -2383,7 +2383,7 @@
     <t>49.406 (101)</t>
   </si>
   <si>
-    <t>8.762 (101)</t>
+    <t>8.743 (101)</t>
   </si>
   <si>
     <t>7.782 (101)</t>
@@ -2650,7 +2650,7 @@
     <t>52.375 (48)</t>
   </si>
   <si>
-    <t>9.292 (48)</t>
+    <t>9.271 (48)</t>
   </si>
   <si>
     <t>7.292 (48)</t>
@@ -2914,9 +2914,6 @@
     <t>47.333 (12)</t>
   </si>
   <si>
-    <t>9.0 (12)</t>
-  </si>
-  <si>
     <t>7.0 (12)</t>
   </si>
   <si>
@@ -3112,7 +3109,7 @@
     <t>50.25 (24)</t>
   </si>
   <si>
-    <t>8.833 (24)</t>
+    <t>8.792 (24)</t>
   </si>
   <si>
     <t>8.25 (24)</t>
@@ -3256,7 +3253,7 @@
     <t>45.455 (55)</t>
   </si>
   <si>
-    <t>8.964 (55)</t>
+    <t>8.982 (55)</t>
   </si>
   <si>
     <t>8.164 (55)</t>
@@ -3310,7 +3307,7 @@
     <t>49.066 (91)</t>
   </si>
   <si>
-    <t>8.725 (91)</t>
+    <t>8.714 (91)</t>
   </si>
   <si>
     <t>7.538 (91)</t>
@@ -3319,9 +3316,6 @@
     <t>8.462 (91)</t>
   </si>
   <si>
-    <t>8.714 (91)</t>
-  </si>
-  <si>
     <t>9.934 (91)</t>
   </si>
   <si>
@@ -3364,7 +3358,7 @@
     <t>51.935 (46)</t>
   </si>
   <si>
-    <t>8.783 (46)</t>
+    <t>8.761 (46)</t>
   </si>
   <si>
     <t>7.457 (46)</t>
@@ -3878,10 +3872,10 @@
         <v>-0.752</v>
       </c>
       <c r="H2">
-        <v>-0.208</v>
+        <v>-0.174</v>
       </c>
       <c r="I2">
-        <v>0.836</v>
+        <v>0.862</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3907,10 +3901,10 @@
         <v>5.246</v>
       </c>
       <c r="H3">
-        <v>1.363</v>
+        <v>1.569</v>
       </c>
       <c r="I3">
-        <v>0.174</v>
+        <v>0.117</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3936,10 +3930,10 @@
         <v>0.099</v>
       </c>
       <c r="H4">
-        <v>0.024</v>
+        <v>0.021</v>
       </c>
       <c r="I4">
-        <v>0.981</v>
+        <v>0.984</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3965,10 +3959,10 @@
         <v>-2.651</v>
       </c>
       <c r="H5">
-        <v>-0.5600000000000001</v>
+        <v>-0.514</v>
       </c>
       <c r="I5">
-        <v>0.576</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3994,10 +3988,10 @@
         <v>3.905</v>
       </c>
       <c r="H6">
-        <v>0.82</v>
+        <v>0.857</v>
       </c>
       <c r="I6">
-        <v>0.413</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4023,10 +4017,10 @@
         <v>2.21</v>
       </c>
       <c r="H7">
-        <v>0.473</v>
+        <v>0.517</v>
       </c>
       <c r="I7">
-        <v>0.636</v>
+        <v>0.605</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4049,13 +4043,13 @@
         <v>0.037</v>
       </c>
       <c r="G8">
-        <v>0.91</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="H8">
-        <v>0.697</v>
+        <v>0.608</v>
       </c>
       <c r="I8">
-        <v>0.486</v>
+        <v>0.543</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4081,10 +4075,10 @@
         <v>-2.023</v>
       </c>
       <c r="H9">
-        <v>-1.423</v>
+        <v>-1.931</v>
       </c>
       <c r="I9">
-        <v>0.156</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4110,10 +4104,10 @@
         <v>-0.214</v>
       </c>
       <c r="H10">
-        <v>-0.124</v>
+        <v>-0.126</v>
       </c>
       <c r="I10">
-        <v>0.902</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4139,10 +4133,10 @@
         <v>1.002</v>
       </c>
       <c r="H11">
-        <v>0.5629999999999999</v>
+        <v>0.472</v>
       </c>
       <c r="I11">
-        <v>0.574</v>
+        <v>0.637</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4168,10 +4162,10 @@
         <v>-1.063</v>
       </c>
       <c r="H12">
-        <v>-0.607</v>
+        <v>-0.661</v>
       </c>
       <c r="I12">
-        <v>0.544</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4197,10 +4191,10 @@
         <v>-0.076</v>
       </c>
       <c r="H13">
-        <v>-0.044</v>
+        <v>-0.047</v>
       </c>
       <c r="I13">
-        <v>0.965</v>
+        <v>0.962</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4226,10 +4220,10 @@
         <v>-0.04</v>
       </c>
       <c r="H14">
-        <v>-1.191</v>
+        <v>-0.947</v>
       </c>
       <c r="I14">
-        <v>0.235</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4255,10 +4249,10 @@
         <v>-0.027</v>
       </c>
       <c r="H15">
-        <v>-0.8179999999999999</v>
+        <v>-0.535</v>
       </c>
       <c r="I15">
-        <v>0.414</v>
+        <v>0.593</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4284,10 +4278,10 @@
         <v>0.013</v>
       </c>
       <c r="H16">
-        <v>0.419</v>
+        <v>0.29</v>
       </c>
       <c r="I16">
-        <v>0.676</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4313,10 +4307,10 @@
         <v>0.018</v>
       </c>
       <c r="H17">
-        <v>0.524</v>
+        <v>0.504</v>
       </c>
       <c r="I17">
-        <v>0.601</v>
+        <v>0.614</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4342,10 +4336,10 @@
         <v>0.065</v>
       </c>
       <c r="H18">
-        <v>1.898</v>
+        <v>1.98</v>
       </c>
       <c r="I18">
-        <v>0.059</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4371,10 +4365,10 @@
         <v>0.054</v>
       </c>
       <c r="H19">
-        <v>1.585</v>
+        <v>1.5</v>
       </c>
       <c r="I19">
-        <v>0.114</v>
+        <v>0.134</v>
       </c>
     </row>
   </sheetData>
@@ -4460,10 +4454,10 @@
         <v>-6.402</v>
       </c>
       <c r="I2">
-        <v>-1.533</v>
+        <v>-1.061</v>
       </c>
       <c r="J2">
-        <v>0.127</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4492,10 +4486,10 @@
         <v>1.262</v>
       </c>
       <c r="I3">
-        <v>0.287</v>
+        <v>0.229</v>
       </c>
       <c r="J3">
-        <v>0.774</v>
+        <v>0.819</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4524,10 +4518,10 @@
         <v>-3.941</v>
       </c>
       <c r="I4">
-        <v>-0.823</v>
+        <v>-0.72</v>
       </c>
       <c r="J4">
-        <v>0.412</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4556,10 +4550,10 @@
         <v>-4.615</v>
       </c>
       <c r="I5">
-        <v>-0.865</v>
+        <v>-1.121</v>
       </c>
       <c r="J5">
-        <v>0.388</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4588,10 +4582,10 @@
         <v>-0.798</v>
       </c>
       <c r="I6">
-        <v>-0.147</v>
+        <v>-0.137</v>
       </c>
       <c r="J6">
-        <v>0.883</v>
+        <v>0.891</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4620,10 +4614,10 @@
         <v>2.205</v>
       </c>
       <c r="I7">
-        <v>0.409</v>
+        <v>0.417</v>
       </c>
       <c r="J7">
-        <v>0.6830000000000001</v>
+        <v>0.677</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4649,13 +4643,13 @@
         <v>0.034</v>
       </c>
       <c r="H8">
-        <v>2.843</v>
+        <v>2.813</v>
       </c>
       <c r="I8">
-        <v>1.95</v>
+        <v>1.502</v>
       </c>
       <c r="J8">
-        <v>0.053</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4684,10 +4678,10 @@
         <v>-0.385</v>
       </c>
       <c r="I9">
-        <v>-0.255</v>
+        <v>-0.236</v>
       </c>
       <c r="J9">
-        <v>0.799</v>
+        <v>0.8129999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4716,10 +4710,10 @@
         <v>0.555</v>
       </c>
       <c r="I10">
-        <v>0.292</v>
+        <v>0.275</v>
       </c>
       <c r="J10">
-        <v>0.77</v>
+        <v>0.784</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4748,10 +4742,10 @@
         <v>1.647</v>
       </c>
       <c r="I11">
-        <v>0.833</v>
+        <v>1.078</v>
       </c>
       <c r="J11">
-        <v>0.406</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4780,10 +4774,10 @@
         <v>0.855</v>
       </c>
       <c r="I12">
-        <v>0.435</v>
+        <v>0.402</v>
       </c>
       <c r="J12">
-        <v>0.664</v>
+        <v>0.6879999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4844,10 +4838,10 @@
         <v>0.038</v>
       </c>
       <c r="I14">
-        <v>0.9389999999999999</v>
+        <v>1.267</v>
       </c>
       <c r="J14">
-        <v>0.349</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4876,10 +4870,10 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="I15">
-        <v>-0.228</v>
+        <v>-0.306</v>
       </c>
       <c r="J15">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4908,10 +4902,10 @@
         <v>0.003</v>
       </c>
       <c r="I16">
-        <v>0.073</v>
+        <v>0.053</v>
       </c>
       <c r="J16">
-        <v>0.9419999999999999</v>
+        <v>0.958</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4940,10 +4934,10 @@
         <v>-0.049</v>
       </c>
       <c r="I17">
-        <v>-1.277</v>
+        <v>-1.289</v>
       </c>
       <c r="J17">
-        <v>0.203</v>
+        <v>0.197</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4972,10 +4966,10 @@
         <v>-0.038</v>
       </c>
       <c r="I18">
-        <v>-0.966</v>
+        <v>-1.163</v>
       </c>
       <c r="J18">
-        <v>0.335</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5004,10 +4998,10 @@
         <v>-0.004</v>
       </c>
       <c r="I19">
-        <v>-0.103</v>
+        <v>-0.113</v>
       </c>
       <c r="J19">
-        <v>0.918</v>
+        <v>0.91</v>
       </c>
     </row>
   </sheetData>
@@ -5100,10 +5094,10 @@
         <v>-9.955</v>
       </c>
       <c r="J2">
-        <v>-1.95</v>
+        <v>-1.366</v>
       </c>
       <c r="K2">
-        <v>0.053</v>
+        <v>0.172</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5135,10 +5129,10 @@
         <v>2.775</v>
       </c>
       <c r="J3">
-        <v>0.515</v>
+        <v>0.386</v>
       </c>
       <c r="K3">
-        <v>0.607</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5170,10 +5164,10 @@
         <v>-0.67</v>
       </c>
       <c r="J4">
-        <v>-0.114</v>
+        <v>-0.115</v>
       </c>
       <c r="K4">
-        <v>0.91</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5205,10 +5199,10 @@
         <v>0.981</v>
       </c>
       <c r="J5">
-        <v>0.15</v>
+        <v>0.164</v>
       </c>
       <c r="K5">
-        <v>0.881</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5240,10 +5234,10 @@
         <v>-0.64</v>
       </c>
       <c r="J6">
-        <v>-0.096</v>
+        <v>-0.09</v>
       </c>
       <c r="K6">
-        <v>0.924</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5275,7 +5269,7 @@
         <v>0.5669999999999999</v>
       </c>
       <c r="J7">
-        <v>0.08599999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="K7">
         <v>0.9320000000000001</v>
@@ -5307,13 +5301,13 @@
         <v>0.024</v>
       </c>
       <c r="I8">
-        <v>4.521</v>
+        <v>4.508</v>
       </c>
       <c r="J8">
-        <v>2.545</v>
+        <v>1.779</v>
       </c>
       <c r="K8">
-        <v>0.012</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5345,10 +5339,10 @@
         <v>-0.474</v>
       </c>
       <c r="J9">
-        <v>-0.255</v>
+        <v>-0.226</v>
       </c>
       <c r="K9">
-        <v>0.799</v>
+        <v>0.821</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5380,10 +5374,10 @@
         <v>-0.286</v>
       </c>
       <c r="J10">
-        <v>-0.123</v>
+        <v>-0.112</v>
       </c>
       <c r="K10">
-        <v>0.902</v>
+        <v>0.911</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5415,10 +5409,10 @@
         <v>0.507</v>
       </c>
       <c r="J11">
-        <v>0.209</v>
+        <v>0.219</v>
       </c>
       <c r="K11">
-        <v>0.835</v>
+        <v>0.827</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5450,10 +5444,10 @@
         <v>1.261</v>
       </c>
       <c r="J12">
-        <v>0.523</v>
+        <v>0.45</v>
       </c>
       <c r="K12">
-        <v>0.602</v>
+        <v>0.653</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5485,10 +5479,10 @@
         <v>0.132</v>
       </c>
       <c r="J13">
-        <v>0.054</v>
+        <v>0.055</v>
       </c>
       <c r="K13">
-        <v>0.957</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5520,10 +5514,10 @@
         <v>0.016</v>
       </c>
       <c r="J14">
-        <v>0.326</v>
+        <v>0.335</v>
       </c>
       <c r="K14">
-        <v>0.745</v>
+        <v>0.737</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5555,10 +5549,10 @@
         <v>0.03</v>
       </c>
       <c r="J15">
-        <v>0.632</v>
+        <v>0.643</v>
       </c>
       <c r="K15">
-        <v>0.528</v>
+        <v>0.521</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5590,10 +5584,10 @@
         <v>0.002</v>
       </c>
       <c r="J16">
-        <v>0.049</v>
+        <v>0.038</v>
       </c>
       <c r="K16">
-        <v>0.961</v>
+        <v>0.969</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5625,10 +5619,10 @@
         <v>-0.039</v>
       </c>
       <c r="J17">
-        <v>-0.821</v>
+        <v>-0.9389999999999999</v>
       </c>
       <c r="K17">
-        <v>0.413</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5660,10 +5654,10 @@
         <v>-0.034</v>
       </c>
       <c r="J18">
-        <v>-0.6929999999999999</v>
+        <v>-0.924</v>
       </c>
       <c r="K18">
-        <v>0.489</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5695,10 +5689,10 @@
         <v>-0.034</v>
       </c>
       <c r="J19">
-        <v>-0.6929999999999999</v>
+        <v>-0.714</v>
       </c>
       <c r="K19">
-        <v>0.489</v>
+        <v>0.475</v>
       </c>
     </row>
   </sheetData>
@@ -5791,10 +5785,10 @@
         <v>-7.863</v>
       </c>
       <c r="J2">
-        <v>-1.326</v>
+        <v>-1.245</v>
       </c>
       <c r="K2">
-        <v>0.187</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5826,10 +5820,10 @@
         <v>0.496</v>
       </c>
       <c r="J3">
-        <v>0.08</v>
+        <v>0.073</v>
       </c>
       <c r="K3">
-        <v>0.9370000000000001</v>
+        <v>0.9419999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5861,10 +5855,10 @@
         <v>0.387</v>
       </c>
       <c r="J4">
-        <v>0.057</v>
+        <v>0.063</v>
       </c>
       <c r="K4">
-        <v>0.955</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5896,10 +5890,10 @@
         <v>0.216</v>
       </c>
       <c r="J5">
-        <v>0.028</v>
+        <v>0.026</v>
       </c>
       <c r="K5">
-        <v>0.977</v>
+        <v>0.979</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5931,10 +5925,10 @@
         <v>-0.191</v>
       </c>
       <c r="J6">
-        <v>-0.025</v>
+        <v>-0.022</v>
       </c>
       <c r="K6">
-        <v>0.98</v>
+        <v>0.982</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5966,10 +5960,10 @@
         <v>-4.547</v>
       </c>
       <c r="J7">
-        <v>-0.596</v>
+        <v>-0.572</v>
       </c>
       <c r="K7">
-        <v>0.552</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5998,10 +5992,10 @@
         <v>0.018</v>
       </c>
       <c r="I8">
-        <v>4.185</v>
+        <v>4.126</v>
       </c>
       <c r="J8">
-        <v>2.026</v>
+        <v>2.015</v>
       </c>
       <c r="K8">
         <v>0.044</v>
@@ -6036,10 +6030,10 @@
         <v>1.003</v>
       </c>
       <c r="J9">
-        <v>0.468</v>
+        <v>0.453</v>
       </c>
       <c r="K9">
-        <v>0.641</v>
+        <v>0.651</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -6071,10 +6065,10 @@
         <v>-0.401</v>
       </c>
       <c r="J10">
-        <v>-0.149</v>
+        <v>-0.166</v>
       </c>
       <c r="K10">
-        <v>0.882</v>
+        <v>0.868</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -6106,10 +6100,10 @@
         <v>0.593</v>
       </c>
       <c r="J11">
-        <v>0.211</v>
+        <v>0.247</v>
       </c>
       <c r="K11">
-        <v>0.833</v>
+        <v>0.805</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -6141,10 +6135,10 @@
         <v>1.089</v>
       </c>
       <c r="J12">
-        <v>0.391</v>
+        <v>0.318</v>
       </c>
       <c r="K12">
-        <v>0.696</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -6176,10 +6170,10 @@
         <v>2.091</v>
       </c>
       <c r="J13">
-        <v>0.738</v>
+        <v>0.598</v>
       </c>
       <c r="K13">
-        <v>0.461</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -6211,10 +6205,10 @@
         <v>0.002</v>
       </c>
       <c r="J14">
-        <v>0.039</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="K14">
-        <v>0.969</v>
+        <v>0.9419999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -6246,10 +6240,10 @@
         <v>0.029</v>
       </c>
       <c r="J15">
-        <v>0.538</v>
+        <v>0.649</v>
       </c>
       <c r="K15">
-        <v>0.591</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -6281,10 +6275,10 @@
         <v>-0.014</v>
       </c>
       <c r="J16">
-        <v>-0.264</v>
+        <v>-0.201</v>
       </c>
       <c r="K16">
-        <v>0.792</v>
+        <v>0.841</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -6316,10 +6310,10 @@
         <v>-0.05</v>
       </c>
       <c r="J17">
-        <v>-0.924</v>
+        <v>-0.781</v>
       </c>
       <c r="K17">
-        <v>0.357</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -6351,10 +6345,10 @@
         <v>-0.02</v>
       </c>
       <c r="J18">
-        <v>-0.352</v>
+        <v>-0.344</v>
       </c>
       <c r="K18">
-        <v>0.725</v>
+        <v>0.731</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -6386,10 +6380,10 @@
         <v>-0.079</v>
       </c>
       <c r="J19">
-        <v>-1.403</v>
+        <v>-1.716</v>
       </c>
       <c r="K19">
-        <v>0.162</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6475,10 +6469,10 @@
         <v>-5.836</v>
       </c>
       <c r="I2">
-        <v>-1.865</v>
+        <v>-1.168</v>
       </c>
       <c r="J2">
-        <v>0.064</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6507,10 +6501,10 @@
         <v>1.599</v>
       </c>
       <c r="I3">
-        <v>0.487</v>
+        <v>0.417</v>
       </c>
       <c r="J3">
-        <v>0.627</v>
+        <v>0.677</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6539,10 +6533,10 @@
         <v>1.307</v>
       </c>
       <c r="I4">
-        <v>0.365</v>
+        <v>0.28</v>
       </c>
       <c r="J4">
-        <v>0.716</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6571,10 +6565,10 @@
         <v>4.476</v>
       </c>
       <c r="I5">
-        <v>1.133</v>
+        <v>1.233</v>
       </c>
       <c r="J5">
-        <v>0.259</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6603,10 +6597,10 @@
         <v>5.729</v>
       </c>
       <c r="I6">
-        <v>1.392</v>
+        <v>1.189</v>
       </c>
       <c r="J6">
-        <v>0.166</v>
+        <v>0.234</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6635,10 +6629,10 @@
         <v>5.869</v>
       </c>
       <c r="I7">
-        <v>1.435</v>
+        <v>1.166</v>
       </c>
       <c r="J7">
-        <v>0.153</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6664,13 +6658,13 @@
         <v>0.065</v>
       </c>
       <c r="H8">
-        <v>3.152</v>
+        <v>3.13</v>
       </c>
       <c r="I8">
-        <v>2.994</v>
+        <v>1.89</v>
       </c>
       <c r="J8">
-        <v>0.003</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6699,10 +6693,10 @@
         <v>-0.263</v>
       </c>
       <c r="I9">
-        <v>-0.249</v>
+        <v>-0.267</v>
       </c>
       <c r="J9">
-        <v>0.804</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6731,10 +6725,10 @@
         <v>-0.395</v>
       </c>
       <c r="I10">
-        <v>-0.29</v>
+        <v>-0.256</v>
       </c>
       <c r="J10">
-        <v>0.772</v>
+        <v>0.798</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6763,10 +6757,10 @@
         <v>-1.435</v>
       </c>
       <c r="I11">
-        <v>-0.983</v>
+        <v>-1.034</v>
       </c>
       <c r="J11">
-        <v>0.327</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6795,10 +6789,10 @@
         <v>-2.511</v>
       </c>
       <c r="I12">
-        <v>-1.712</v>
+        <v>-1.476</v>
       </c>
       <c r="J12">
-        <v>0.089</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6827,10 +6821,10 @@
         <v>-1.738</v>
       </c>
       <c r="I13">
-        <v>-1.163</v>
+        <v>-0.914</v>
       </c>
       <c r="J13">
-        <v>0.246</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6859,10 +6853,10 @@
         <v>-0.018</v>
       </c>
       <c r="I14">
-        <v>-0.611</v>
+        <v>-0.65</v>
       </c>
       <c r="J14">
-        <v>0.542</v>
+        <v>0.515</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6891,10 +6885,10 @@
         <v>-0.012</v>
       </c>
       <c r="I15">
-        <v>-0.431</v>
+        <v>-0.377</v>
       </c>
       <c r="J15">
-        <v>0.667</v>
+        <v>0.706</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6923,10 +6917,10 @@
         <v>-0.002</v>
       </c>
       <c r="I16">
-        <v>-0.079</v>
+        <v>-0.06900000000000001</v>
       </c>
       <c r="J16">
-        <v>0.9370000000000001</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6955,10 +6949,10 @@
         <v>-0.004</v>
       </c>
       <c r="I17">
-        <v>-0.136</v>
+        <v>-0.159</v>
       </c>
       <c r="J17">
-        <v>0.892</v>
+        <v>0.874</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6987,10 +6981,10 @@
         <v>0.031</v>
       </c>
       <c r="I18">
-        <v>1.051</v>
+        <v>1.036</v>
       </c>
       <c r="J18">
-        <v>0.295</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7019,10 +7013,10 @@
         <v>0.035</v>
       </c>
       <c r="I19">
-        <v>1.149</v>
+        <v>0.887</v>
       </c>
       <c r="J19">
-        <v>0.252</v>
+        <v>0.375</v>
       </c>
     </row>
   </sheetData>
@@ -7115,10 +7109,10 @@
         <v>-5.493</v>
       </c>
       <c r="J2">
-        <v>-1.444</v>
+        <v>-0.847</v>
       </c>
       <c r="K2">
-        <v>0.151</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7150,10 +7144,10 @@
         <v>2.998</v>
       </c>
       <c r="J3">
-        <v>0.756</v>
+        <v>0.595</v>
       </c>
       <c r="K3">
-        <v>0.451</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7185,10 +7179,10 @@
         <v>0.546</v>
       </c>
       <c r="J4">
-        <v>0.126</v>
+        <v>0.107</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.914</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7220,10 +7214,10 @@
         <v>3.589</v>
       </c>
       <c r="J5">
-        <v>0.749</v>
+        <v>0.791</v>
       </c>
       <c r="K5">
-        <v>0.455</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7255,10 +7249,10 @@
         <v>2.924</v>
       </c>
       <c r="J6">
-        <v>0.584</v>
+        <v>0.535</v>
       </c>
       <c r="K6">
-        <v>0.5600000000000001</v>
+        <v>0.593</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -7290,10 +7284,10 @@
         <v>4.201</v>
       </c>
       <c r="J7">
-        <v>0.845</v>
+        <v>0.666</v>
       </c>
       <c r="K7">
-        <v>0.399</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -7310,7 +7304,7 @@
         <v>943</v>
       </c>
       <c r="E8" t="s">
-        <v>961</v>
+        <v>505</v>
       </c>
       <c r="F8" t="s">
         <v>367</v>
@@ -7322,13 +7316,13 @@
         <v>0.044</v>
       </c>
       <c r="I8">
-        <v>3.238</v>
+        <v>3.184</v>
       </c>
       <c r="J8">
-        <v>2.522</v>
+        <v>1.676</v>
       </c>
       <c r="K8">
-        <v>0.013</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7345,7 +7339,7 @@
         <v>944</v>
       </c>
       <c r="E9" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F9" t="s">
         <v>368</v>
@@ -7360,10 +7354,10 @@
         <v>-1.044</v>
       </c>
       <c r="J9">
-        <v>-0.8159999999999999</v>
+        <v>-0.819</v>
       </c>
       <c r="K9">
-        <v>0.416</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7380,7 +7374,7 @@
         <v>945</v>
       </c>
       <c r="E10" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F10" t="s">
         <v>367</v>
@@ -7395,10 +7389,10 @@
         <v>-0.389</v>
       </c>
       <c r="J10">
-        <v>-0.236</v>
+        <v>-0.21</v>
       </c>
       <c r="K10">
-        <v>0.8139999999999999</v>
+        <v>0.834</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -7415,7 +7409,7 @@
         <v>946</v>
       </c>
       <c r="E11" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F11" t="s">
         <v>368</v>
@@ -7430,10 +7424,10 @@
         <v>-1.128</v>
       </c>
       <c r="J11">
-        <v>-0.637</v>
+        <v>-0.721</v>
       </c>
       <c r="K11">
-        <v>0.525</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7465,10 +7459,10 @@
         <v>-1.099</v>
       </c>
       <c r="J12">
-        <v>-0.614</v>
+        <v>-0.591</v>
       </c>
       <c r="K12">
-        <v>0.54</v>
+        <v>0.554</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7485,7 +7479,7 @@
         <v>948</v>
       </c>
       <c r="E13" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F13" t="s">
         <v>369</v>
@@ -7500,10 +7494,10 @@
         <v>-0.952</v>
       </c>
       <c r="J13">
-        <v>-0.525</v>
+        <v>-0.397</v>
       </c>
       <c r="K13">
-        <v>0.6</v>
+        <v>0.6909999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -7520,7 +7514,7 @@
         <v>949</v>
       </c>
       <c r="E14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F14" t="s">
         <v>370</v>
@@ -7535,10 +7529,10 @@
         <v>-0.003</v>
       </c>
       <c r="J14">
-        <v>-0.096</v>
+        <v>-0.135</v>
       </c>
       <c r="K14">
-        <v>0.924</v>
+        <v>0.893</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -7555,7 +7549,7 @@
         <v>950</v>
       </c>
       <c r="E15" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F15" t="s">
         <v>371</v>
@@ -7570,10 +7564,10 @@
         <v>-0.017</v>
       </c>
       <c r="J15">
-        <v>-0.475</v>
+        <v>-0.486</v>
       </c>
       <c r="K15">
-        <v>0.635</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -7590,7 +7584,7 @@
         <v>951</v>
       </c>
       <c r="E16" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F16" t="s">
         <v>371</v>
@@ -7605,10 +7599,10 @@
         <v>-0.016</v>
       </c>
       <c r="J16">
-        <v>-0.451</v>
+        <v>-0.406</v>
       </c>
       <c r="K16">
-        <v>0.653</v>
+        <v>0.6850000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -7625,7 +7619,7 @@
         <v>952</v>
       </c>
       <c r="E17" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F17" t="s">
         <v>372</v>
@@ -7640,10 +7634,10 @@
         <v>-0.014</v>
       </c>
       <c r="J17">
-        <v>-0.398</v>
+        <v>-0.423</v>
       </c>
       <c r="K17">
-        <v>0.6909999999999999</v>
+        <v>0.672</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -7660,7 +7654,7 @@
         <v>953</v>
       </c>
       <c r="E18" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F18" t="s">
         <v>373</v>
@@ -7675,10 +7669,10 @@
         <v>-0.006</v>
       </c>
       <c r="J18">
-        <v>-0.164</v>
+        <v>-0.22</v>
       </c>
       <c r="K18">
-        <v>0.87</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -7695,7 +7689,7 @@
         <v>954</v>
       </c>
       <c r="E19" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F19" t="s">
         <v>374</v>
@@ -7710,10 +7704,10 @@
         <v>-0.012</v>
       </c>
       <c r="J19">
-        <v>-0.313</v>
+        <v>-0.27</v>
       </c>
       <c r="K19">
-        <v>0.755</v>
+        <v>0.787</v>
       </c>
     </row>
   </sheetData>
@@ -7782,19 +7776,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="G2">
         <v>208</v>
@@ -7806,10 +7800,10 @@
         <v>-8.304</v>
       </c>
       <c r="J2">
-        <v>-1.673</v>
+        <v>-1.103</v>
       </c>
       <c r="K2">
-        <v>0.096</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7817,19 +7811,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="G3">
         <v>208</v>
@@ -7841,10 +7835,10 @@
         <v>0.643</v>
       </c>
       <c r="J3">
-        <v>0.124</v>
+        <v>0.103</v>
       </c>
       <c r="K3">
-        <v>0.902</v>
+        <v>0.918</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7852,19 +7846,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C4" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D4" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E4" t="s">
         <v>798</v>
       </c>
       <c r="F4" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="G4">
         <v>208</v>
@@ -7879,7 +7873,7 @@
         <v>-0.002</v>
       </c>
       <c r="K4">
-        <v>0.998</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7887,19 +7881,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C5" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E5" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F5" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="G5">
         <v>208</v>
@@ -7911,10 +7905,10 @@
         <v>8.486000000000001</v>
       </c>
       <c r="J5">
-        <v>1.359</v>
+        <v>1.515</v>
       </c>
       <c r="K5">
-        <v>0.176</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7922,19 +7916,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C6" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D6" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E6" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F6" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="G6">
         <v>208</v>
@@ -7946,10 +7940,10 @@
         <v>3.092</v>
       </c>
       <c r="J6">
-        <v>0.472</v>
+        <v>0.465</v>
       </c>
       <c r="K6">
-        <v>0.638</v>
+        <v>0.642</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -7957,19 +7951,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C7" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D7" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E7" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F7" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="G7">
         <v>208</v>
@@ -7981,10 +7975,10 @@
         <v>4.501</v>
       </c>
       <c r="J7">
-        <v>0.6919999999999999</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="K7">
-        <v>0.49</v>
+        <v>0.573</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -7992,16 +7986,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C8" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D8" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E8" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F8" t="s">
         <v>821</v>
@@ -8013,13 +8007,13 @@
         <v>0.028</v>
       </c>
       <c r="I8">
-        <v>4.941</v>
+        <v>4.897</v>
       </c>
       <c r="J8">
-        <v>2.963</v>
+        <v>2.095</v>
       </c>
       <c r="K8">
-        <v>0.003</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8027,16 +8021,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C9" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D9" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E9" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F9" t="s">
         <v>895</v>
@@ -8051,10 +8045,10 @@
         <v>-0.329</v>
       </c>
       <c r="J9">
-        <v>-0.196</v>
+        <v>-0.211</v>
       </c>
       <c r="K9">
-        <v>0.845</v>
+        <v>0.833</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8062,19 +8056,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C10" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D10" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E10" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F10" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="G10">
         <v>208</v>
@@ -8086,10 +8080,10 @@
         <v>0.14</v>
       </c>
       <c r="J10">
-        <v>0.065</v>
+        <v>0.055</v>
       </c>
       <c r="K10">
-        <v>0.948</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8097,19 +8091,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C11" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D11" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E11" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F11" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="G11">
         <v>208</v>
@@ -8121,10 +8115,10 @@
         <v>-2.27</v>
       </c>
       <c r="J11">
-        <v>-0.982</v>
+        <v>-1.051</v>
       </c>
       <c r="K11">
-        <v>0.327</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8132,19 +8126,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C12" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D12" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E12" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F12" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="G12">
         <v>208</v>
@@ -8156,10 +8150,10 @@
         <v>-1.104</v>
       </c>
       <c r="J12">
-        <v>-0.471</v>
+        <v>-0.443</v>
       </c>
       <c r="K12">
-        <v>0.638</v>
+        <v>0.658</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8167,19 +8161,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C13" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D13" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E13" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F13" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="G13">
         <v>208</v>
@@ -8191,10 +8185,10 @@
         <v>-1.221</v>
       </c>
       <c r="J13">
-        <v>-0.515</v>
+        <v>-0.387</v>
       </c>
       <c r="K13">
-        <v>0.608</v>
+        <v>0.699</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8202,19 +8196,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C14" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D14" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E14" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F14" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G14">
         <v>208</v>
@@ -8226,10 +8220,10 @@
         <v>-0.023</v>
       </c>
       <c r="J14">
-        <v>-0.482</v>
+        <v>-0.743</v>
       </c>
       <c r="K14">
-        <v>0.631</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8237,19 +8231,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C15" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D15" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E15" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F15" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G15">
         <v>208</v>
@@ -8261,10 +8255,10 @@
         <v>0.023</v>
       </c>
       <c r="J15">
-        <v>0.505</v>
+        <v>0.433</v>
       </c>
       <c r="K15">
-        <v>0.614</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8272,10 +8266,10 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C16" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D16" t="s">
         <v>863</v>
@@ -8284,7 +8278,7 @@
         <v>809</v>
       </c>
       <c r="F16" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="G16">
         <v>208</v>
@@ -8296,10 +8290,10 @@
         <v>-0.031</v>
       </c>
       <c r="J16">
-        <v>-0.6879999999999999</v>
+        <v>-0.67</v>
       </c>
       <c r="K16">
-        <v>0.492</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8307,19 +8301,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C17" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D17" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E17" t="s">
         <v>808</v>
       </c>
       <c r="F17" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="G17">
         <v>208</v>
@@ -8331,10 +8325,10 @@
         <v>0.005</v>
       </c>
       <c r="J17">
-        <v>0.107</v>
+        <v>0.111</v>
       </c>
       <c r="K17">
-        <v>0.915</v>
+        <v>0.912</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8342,19 +8336,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C18" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D18" t="s">
         <v>865</v>
       </c>
       <c r="E18" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F18" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="G18">
         <v>208</v>
@@ -8366,10 +8360,10 @@
         <v>0.021</v>
       </c>
       <c r="J18">
-        <v>0.444</v>
+        <v>0.492</v>
       </c>
       <c r="K18">
-        <v>0.658</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8377,19 +8371,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C19" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D19" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E19" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F19" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="G19">
         <v>208</v>
@@ -8401,10 +8395,10 @@
         <v>-0.052</v>
       </c>
       <c r="J19">
-        <v>-1.066</v>
+        <v>-0.927</v>
       </c>
       <c r="K19">
-        <v>0.288</v>
+        <v>0.354</v>
       </c>
     </row>
   </sheetData>
@@ -8477,19 +8471,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C2" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D2" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E2" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="F2" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="G2" t="s">
         <v>725</v>
@@ -8504,10 +8498,10 @@
         <v>-7.182</v>
       </c>
       <c r="K2">
-        <v>-1.283</v>
+        <v>-1.12</v>
       </c>
       <c r="L2">
-        <v>0.201</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8515,19 +8509,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E3" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="F3" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="G3" t="s">
         <v>726</v>
@@ -8542,10 +8536,10 @@
         <v>-0.393</v>
       </c>
       <c r="K3">
-        <v>-0.067</v>
+        <v>-0.08</v>
       </c>
       <c r="L3">
-        <v>0.946</v>
+        <v>0.9360000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -8553,19 +8547,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E4" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="F4" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="G4" t="s">
         <v>727</v>
@@ -8580,10 +8574,10 @@
         <v>1.664</v>
       </c>
       <c r="K4">
-        <v>0.261</v>
+        <v>0.255</v>
       </c>
       <c r="L4">
-        <v>0.795</v>
+        <v>0.799</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -8591,19 +8585,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D5" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E5" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="F5" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="G5" t="s">
         <v>728</v>
@@ -8618,10 +8612,10 @@
         <v>10.107</v>
       </c>
       <c r="K5">
-        <v>1.441</v>
+        <v>1.451</v>
       </c>
       <c r="L5">
-        <v>0.151</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8629,19 +8623,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C6" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D6" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E6" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="F6" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="G6" t="s">
         <v>729</v>
@@ -8656,7 +8650,7 @@
         <v>5.338</v>
       </c>
       <c r="K6">
-        <v>0.726</v>
+        <v>0.724</v>
       </c>
       <c r="L6">
         <v>0.469</v>
@@ -8667,19 +8661,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C7" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D7" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E7" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="F7" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="G7" t="s">
         <v>730</v>
@@ -8694,10 +8688,10 @@
         <v>1.942</v>
       </c>
       <c r="K7">
-        <v>0.265</v>
+        <v>0.211</v>
       </c>
       <c r="L7">
-        <v>0.791</v>
+        <v>0.833</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8705,19 +8699,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C8" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D8" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E8" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F8" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="G8" t="s">
         <v>731</v>
@@ -8729,13 +8723,13 @@
         <v>0.023</v>
       </c>
       <c r="J8">
-        <v>4.728</v>
+        <v>4.633</v>
       </c>
       <c r="K8">
-        <v>2.504</v>
+        <v>2.43</v>
       </c>
       <c r="L8">
-        <v>0.013</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8743,19 +8737,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C9" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D9" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E9" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="F9" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="G9" t="s">
         <v>732</v>
@@ -8770,10 +8764,10 @@
         <v>0.547</v>
       </c>
       <c r="K9">
-        <v>0.29</v>
+        <v>0.39</v>
       </c>
       <c r="L9">
-        <v>0.772</v>
+        <v>0.697</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8781,19 +8775,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C10" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D10" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E10" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="F10" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="G10" t="s">
         <v>733</v>
@@ -8808,10 +8802,10 @@
         <v>0.447</v>
       </c>
       <c r="K10">
-        <v>0.184</v>
+        <v>0.187</v>
       </c>
       <c r="L10">
-        <v>0.854</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8819,19 +8813,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C11" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D11" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="E11" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="F11" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="G11" t="s">
         <v>728</v>
@@ -8846,10 +8840,10 @@
         <v>-2.641</v>
       </c>
       <c r="K11">
-        <v>-1.017</v>
+        <v>-1.244</v>
       </c>
       <c r="L11">
-        <v>0.311</v>
+        <v>0.214</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8857,19 +8851,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C12" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D12" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="E12" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="F12" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="G12" t="s">
         <v>734</v>
@@ -8884,10 +8878,10 @@
         <v>-1.809</v>
       </c>
       <c r="K12">
-        <v>-0.6879999999999999</v>
+        <v>-0.716</v>
       </c>
       <c r="L12">
-        <v>0.492</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -8895,19 +8889,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C13" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D13" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="E13" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="F13" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="G13" t="s">
         <v>735</v>
@@ -8922,10 +8916,10 @@
         <v>-0.214</v>
       </c>
       <c r="K13">
-        <v>-0.08</v>
+        <v>-0.056</v>
       </c>
       <c r="L13">
-        <v>0.9360000000000001</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -8933,19 +8927,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C14" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D14" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="E14" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F14" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="G14" t="s">
         <v>736</v>
@@ -8960,10 +8954,10 @@
         <v>-0.034</v>
       </c>
       <c r="K14">
-        <v>-0.649</v>
+        <v>-0.916</v>
       </c>
       <c r="L14">
-        <v>0.517</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -8971,19 +8965,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C15" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D15" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E15" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F15" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="G15" t="s">
         <v>737</v>
@@ -8998,10 +8992,10 @@
         <v>0.006</v>
       </c>
       <c r="K15">
-        <v>0.126</v>
+        <v>0.121</v>
       </c>
       <c r="L15">
-        <v>0.9</v>
+        <v>0.904</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -9009,19 +9003,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C16" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D16" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E16" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="F16" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="G16" t="s">
         <v>738</v>
@@ -9036,10 +9030,10 @@
         <v>-0.055</v>
       </c>
       <c r="K16">
-        <v>-1.069</v>
+        <v>-0.83</v>
       </c>
       <c r="L16">
-        <v>0.287</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -9047,19 +9041,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C17" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E17" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="F17" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="G17" t="s">
         <v>739</v>
@@ -9074,10 +9068,10 @@
         <v>0.011</v>
       </c>
       <c r="K17">
-        <v>0.216</v>
+        <v>0.185</v>
       </c>
       <c r="L17">
-        <v>0.829</v>
+        <v>0.854</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -9085,19 +9079,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C18" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D18" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E18" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F18" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="G18" t="s">
         <v>740</v>
@@ -9112,10 +9106,10 @@
         <v>0.027</v>
       </c>
       <c r="K18">
-        <v>0.508</v>
+        <v>0.527</v>
       </c>
       <c r="L18">
-        <v>0.612</v>
+        <v>0.598</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -9123,19 +9117,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C19" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D19" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="E19" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="F19" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="G19" t="s">
         <v>741</v>
@@ -9150,10 +9144,10 @@
         <v>-0.07099999999999999</v>
       </c>
       <c r="K19">
-        <v>-1.289</v>
+        <v>-1.238</v>
       </c>
       <c r="L19">
-        <v>0.199</v>
+        <v>0.216</v>
       </c>
     </row>
   </sheetData>
@@ -9232,10 +9226,10 @@
         <v>-2.331</v>
       </c>
       <c r="H2">
-        <v>-0.506</v>
+        <v>-0.438</v>
       </c>
       <c r="I2">
-        <v>0.614</v>
+        <v>0.661</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -9261,10 +9255,10 @@
         <v>8.391</v>
       </c>
       <c r="H3">
-        <v>1.715</v>
+        <v>1.774</v>
       </c>
       <c r="I3">
-        <v>0.08799999999999999</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -9290,10 +9284,10 @@
         <v>0.449</v>
       </c>
       <c r="H4">
-        <v>0.08400000000000001</v>
+        <v>0.068</v>
       </c>
       <c r="I4">
-        <v>0.9330000000000001</v>
+        <v>0.946</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -9319,10 +9313,10 @@
         <v>-5.666</v>
       </c>
       <c r="H5">
-        <v>-0.9399999999999999</v>
+        <v>-0.99</v>
       </c>
       <c r="I5">
-        <v>0.348</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -9348,10 +9342,10 @@
         <v>4.928</v>
       </c>
       <c r="H6">
-        <v>0.8120000000000001</v>
+        <v>0.709</v>
       </c>
       <c r="I6">
-        <v>0.418</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -9377,10 +9371,10 @@
         <v>3.754</v>
       </c>
       <c r="H7">
-        <v>0.631</v>
+        <v>0.603</v>
       </c>
       <c r="I7">
-        <v>0.529</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -9403,13 +9397,13 @@
         <v>0.023</v>
       </c>
       <c r="G8">
-        <v>1.518</v>
+        <v>1.554</v>
       </c>
       <c r="H8">
-        <v>0.914</v>
+        <v>1.02</v>
       </c>
       <c r="I8">
-        <v>0.362</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -9435,10 +9429,10 @@
         <v>-3.492</v>
       </c>
       <c r="H9">
-        <v>-1.935</v>
+        <v>-2.138</v>
       </c>
       <c r="I9">
-        <v>0.054</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -9464,10 +9458,10 @@
         <v>0.134</v>
       </c>
       <c r="H10">
-        <v>0.061</v>
+        <v>0.054</v>
       </c>
       <c r="I10">
-        <v>0.952</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -9493,10 +9487,10 @@
         <v>2.264</v>
       </c>
       <c r="H11">
-        <v>1.001</v>
+        <v>1.252</v>
       </c>
       <c r="I11">
-        <v>0.318</v>
+        <v>0.211</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -9522,10 +9516,10 @@
         <v>-0.434</v>
       </c>
       <c r="H12">
-        <v>-0.194</v>
+        <v>-0.174</v>
       </c>
       <c r="I12">
-        <v>0.846</v>
+        <v>0.862</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -9551,10 +9545,10 @@
         <v>-0.181</v>
       </c>
       <c r="H13">
-        <v>-0.081</v>
+        <v>-0.076</v>
       </c>
       <c r="I13">
-        <v>0.9360000000000001</v>
+        <v>0.9389999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -9580,10 +9574,10 @@
         <v>-0.039</v>
       </c>
       <c r="H14">
-        <v>-0.907</v>
+        <v>-1.336</v>
       </c>
       <c r="I14">
-        <v>0.366</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -9609,10 +9603,10 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="H15">
-        <v>-0.218</v>
+        <v>-0.196</v>
       </c>
       <c r="I15">
-        <v>0.828</v>
+        <v>0.845</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -9638,10 +9632,10 @@
         <v>0.035</v>
       </c>
       <c r="H16">
-        <v>0.857</v>
+        <v>0.621</v>
       </c>
       <c r="I16">
-        <v>0.392</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -9667,10 +9661,10 @@
         <v>-0.017</v>
       </c>
       <c r="H17">
-        <v>-0.4</v>
+        <v>-0.423</v>
       </c>
       <c r="I17">
-        <v>0.6889999999999999</v>
+        <v>0.672</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -9696,10 +9690,10 @@
         <v>0.008</v>
       </c>
       <c r="H18">
-        <v>0.194</v>
+        <v>0.217</v>
       </c>
       <c r="I18">
-        <v>0.847</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -9725,10 +9719,10 @@
         <v>0.011</v>
       </c>
       <c r="H19">
-        <v>0.25</v>
+        <v>0.287</v>
       </c>
       <c r="I19">
-        <v>0.803</v>
+        <v>0.774</v>
       </c>
     </row>
   </sheetData>
@@ -9807,10 +9801,10 @@
         <v>-2.172</v>
       </c>
       <c r="H2">
-        <v>-0.42</v>
+        <v>-0.43</v>
       </c>
       <c r="I2">
-        <v>0.675</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -9836,10 +9830,10 @@
         <v>9.523</v>
       </c>
       <c r="H3">
-        <v>1.736</v>
+        <v>1.625</v>
       </c>
       <c r="I3">
-        <v>0.08400000000000001</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -9865,10 +9859,10 @@
         <v>3.934</v>
       </c>
       <c r="H4">
-        <v>0.654</v>
+        <v>0.617</v>
       </c>
       <c r="I4">
-        <v>0.514</v>
+        <v>0.537</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -9894,10 +9888,10 @@
         <v>-1.62</v>
       </c>
       <c r="H5">
-        <v>-0.239</v>
+        <v>-0.259</v>
       </c>
       <c r="I5">
-        <v>0.8110000000000001</v>
+        <v>0.796</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -9923,10 +9917,10 @@
         <v>5.844</v>
       </c>
       <c r="H6">
-        <v>0.859</v>
+        <v>0.881</v>
       </c>
       <c r="I6">
-        <v>0.392</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -9952,10 +9946,10 @@
         <v>4.531</v>
       </c>
       <c r="H7">
-        <v>0.679</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I7">
-        <v>0.498</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -9978,13 +9972,13 @@
         <v>0.018</v>
       </c>
       <c r="G8">
-        <v>2.057</v>
+        <v>2.107</v>
       </c>
       <c r="H8">
-        <v>1.106</v>
+        <v>1.054</v>
       </c>
       <c r="I8">
-        <v>0.27</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -10010,10 +10004,10 @@
         <v>-4.529</v>
       </c>
       <c r="H9">
-        <v>-2.245</v>
+        <v>-2.079</v>
       </c>
       <c r="I9">
-        <v>0.026</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -10039,10 +10033,10 @@
         <v>-0.8129999999999999</v>
       </c>
       <c r="H10">
-        <v>-0.328</v>
+        <v>-0.304</v>
       </c>
       <c r="I10">
-        <v>0.743</v>
+        <v>0.761</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -10068,10 +10062,10 @@
         <v>1.286</v>
       </c>
       <c r="H11">
-        <v>0.506</v>
+        <v>0.603</v>
       </c>
       <c r="I11">
-        <v>0.613</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -10097,10 +10091,10 @@
         <v>-1.091</v>
       </c>
       <c r="H12">
-        <v>-0.436</v>
+        <v>-0.433</v>
       </c>
       <c r="I12">
-        <v>0.663</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -10126,10 +10120,10 @@
         <v>-1.27</v>
       </c>
       <c r="H13">
-        <v>-0.507</v>
+        <v>-0.394</v>
       </c>
       <c r="I13">
-        <v>0.612</v>
+        <v>0.694</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -10155,10 +10149,10 @@
         <v>-0.059</v>
       </c>
       <c r="H14">
-        <v>-1.229</v>
+        <v>-1.89</v>
       </c>
       <c r="I14">
-        <v>0.221</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -10184,10 +10178,10 @@
         <v>0.016</v>
       </c>
       <c r="H15">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="I15">
-        <v>0.741</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -10213,10 +10207,10 @@
         <v>0.02</v>
       </c>
       <c r="H16">
-        <v>0.438</v>
+        <v>0.352</v>
       </c>
       <c r="I16">
-        <v>0.662</v>
+        <v>0.725</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -10242,10 +10236,10 @@
         <v>-0.019</v>
       </c>
       <c r="H17">
-        <v>-0.391</v>
+        <v>-0.482</v>
       </c>
       <c r="I17">
-        <v>0.696</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -10271,10 +10265,10 @@
         <v>-0.006</v>
       </c>
       <c r="H18">
-        <v>-0.13</v>
+        <v>-0.165</v>
       </c>
       <c r="I18">
-        <v>0.897</v>
+        <v>0.869</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -10300,10 +10294,10 @@
         <v>-0.03</v>
       </c>
       <c r="H19">
-        <v>-0.606</v>
+        <v>-0.649</v>
       </c>
       <c r="I19">
-        <v>0.545</v>
+        <v>0.516</v>
       </c>
     </row>
   </sheetData>
@@ -10389,10 +10383,10 @@
         <v>1.161</v>
       </c>
       <c r="I2">
-        <v>0.207</v>
+        <v>0.198</v>
       </c>
       <c r="J2">
-        <v>0.836</v>
+        <v>0.843</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10421,10 +10415,10 @@
         <v>8.054</v>
       </c>
       <c r="I3">
-        <v>1.35</v>
+        <v>1.357</v>
       </c>
       <c r="J3">
-        <v>0.179</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10453,10 +10447,10 @@
         <v>9.286</v>
       </c>
       <c r="I4">
-        <v>1.428</v>
+        <v>1.324</v>
       </c>
       <c r="J4">
-        <v>0.155</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10485,10 +10479,10 @@
         <v>1.317</v>
       </c>
       <c r="I5">
-        <v>0.179</v>
+        <v>0.167</v>
       </c>
       <c r="J5">
-        <v>0.858</v>
+        <v>0.868</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10517,10 +10511,10 @@
         <v>11.671</v>
       </c>
       <c r="I6">
-        <v>1.588</v>
+        <v>1.551</v>
       </c>
       <c r="J6">
-        <v>0.114</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10549,10 +10543,10 @@
         <v>5.086</v>
       </c>
       <c r="I7">
-        <v>0.703</v>
+        <v>0.511</v>
       </c>
       <c r="J7">
-        <v>0.483</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10578,10 +10572,10 @@
         <v>0.016</v>
       </c>
       <c r="H8">
-        <v>1.214</v>
+        <v>1.229</v>
       </c>
       <c r="I8">
-        <v>0.6</v>
+        <v>0.599</v>
       </c>
       <c r="J8">
         <v>0.549</v>
@@ -10613,10 +10607,10 @@
         <v>-3.113</v>
       </c>
       <c r="I9">
-        <v>-1.412</v>
+        <v>-1.413</v>
       </c>
       <c r="J9">
-        <v>0.159</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10645,10 +10639,10 @@
         <v>-2.244</v>
       </c>
       <c r="I10">
-        <v>-0.837</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="J10">
-        <v>0.404</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10677,10 +10671,10 @@
         <v>-0.313</v>
       </c>
       <c r="I11">
-        <v>-0.113</v>
+        <v>-0.121</v>
       </c>
       <c r="J11">
-        <v>0.91</v>
+        <v>0.904</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10709,10 +10703,10 @@
         <v>-3.067</v>
       </c>
       <c r="I12">
-        <v>-1.133</v>
+        <v>-1.085</v>
       </c>
       <c r="J12">
-        <v>0.259</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10741,10 +10735,10 @@
         <v>-1.442</v>
       </c>
       <c r="I13">
-        <v>-0.531</v>
+        <v>-0.345</v>
       </c>
       <c r="J13">
-        <v>0.596</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10773,10 +10767,10 @@
         <v>-0.1</v>
       </c>
       <c r="I14">
-        <v>-1.909</v>
+        <v>-2.042</v>
       </c>
       <c r="J14">
-        <v>0.058</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10805,10 +10799,10 @@
         <v>-0.02</v>
       </c>
       <c r="I15">
-        <v>-0.378</v>
+        <v>-0.252</v>
       </c>
       <c r="J15">
-        <v>0.705</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10837,10 +10831,10 @@
         <v>0.001</v>
       </c>
       <c r="I16">
-        <v>0.026</v>
+        <v>0.016</v>
       </c>
       <c r="J16">
-        <v>0.979</v>
+        <v>0.987</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10869,10 +10863,10 @@
         <v>-0.032</v>
       </c>
       <c r="I17">
-        <v>-0.603</v>
+        <v>-0.484</v>
       </c>
       <c r="J17">
-        <v>0.547</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10901,10 +10895,10 @@
         <v>-0.024</v>
       </c>
       <c r="I18">
-        <v>-0.457</v>
+        <v>-0.425</v>
       </c>
       <c r="J18">
-        <v>0.648</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10933,10 +10927,10 @@
         <v>-0.057</v>
       </c>
       <c r="I19">
-        <v>-1.076</v>
+        <v>-1.003</v>
       </c>
       <c r="J19">
-        <v>0.283</v>
+        <v>0.316</v>
       </c>
     </row>
   </sheetData>
@@ -11015,10 +11009,10 @@
         <v>-1.737</v>
       </c>
       <c r="H2">
-        <v>-0.522</v>
+        <v>-0.395</v>
       </c>
       <c r="I2">
-        <v>0.602</v>
+        <v>0.6929999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -11044,10 +11038,10 @@
         <v>3.164</v>
       </c>
       <c r="H3">
-        <v>0.895</v>
+        <v>0.923</v>
       </c>
       <c r="I3">
-        <v>0.372</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -11073,10 +11067,10 @@
         <v>-0.475</v>
       </c>
       <c r="H4">
-        <v>-0.125</v>
+        <v>-0.114</v>
       </c>
       <c r="I4">
-        <v>0.901</v>
+        <v>0.909</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -11102,10 +11096,10 @@
         <v>-2.171</v>
       </c>
       <c r="H5">
-        <v>-0.503</v>
+        <v>-0.445</v>
       </c>
       <c r="I5">
-        <v>0.616</v>
+        <v>0.656</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -11131,10 +11125,10 @@
         <v>3.17</v>
       </c>
       <c r="H6">
-        <v>0.73</v>
+        <v>0.754</v>
       </c>
       <c r="I6">
-        <v>0.466</v>
+        <v>0.451</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -11160,10 +11154,10 @@
         <v>1.978</v>
       </c>
       <c r="H7">
-        <v>0.457</v>
+        <v>0.482</v>
       </c>
       <c r="I7">
-        <v>0.648</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -11186,13 +11180,13 @@
         <v>0.048</v>
       </c>
       <c r="G8">
-        <v>0.849</v>
+        <v>0.851</v>
       </c>
       <c r="H8">
-        <v>0.718</v>
+        <v>0.548</v>
       </c>
       <c r="I8">
-        <v>0.473</v>
+        <v>0.583</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -11218,10 +11212,10 @@
         <v>-1.201</v>
       </c>
       <c r="H9">
-        <v>-0.95</v>
+        <v>-1.019</v>
       </c>
       <c r="I9">
-        <v>0.344</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -11247,10 +11241,10 @@
         <v>-0.515</v>
       </c>
       <c r="H10">
-        <v>-0.335</v>
+        <v>-0.327</v>
       </c>
       <c r="I10">
-        <v>0.738</v>
+        <v>0.744</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -11276,10 +11270,10 @@
         <v>0.531</v>
       </c>
       <c r="H11">
-        <v>0.328</v>
+        <v>0.276</v>
       </c>
       <c r="I11">
-        <v>0.743</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -11305,10 +11299,10 @@
         <v>-1.057</v>
       </c>
       <c r="H12">
-        <v>-0.664</v>
+        <v>-0.765</v>
       </c>
       <c r="I12">
-        <v>0.508</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -11334,10 +11328,10 @@
         <v>-0.108</v>
       </c>
       <c r="H13">
-        <v>-0.067</v>
+        <v>-0.08599999999999999</v>
       </c>
       <c r="I13">
-        <v>0.947</v>
+        <v>0.9320000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -11363,10 +11357,10 @@
         <v>-0.03</v>
       </c>
       <c r="H14">
-        <v>-0.949</v>
+        <v>-0.8120000000000001</v>
       </c>
       <c r="I14">
-        <v>0.344</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -11392,10 +11386,10 @@
         <v>-0.016</v>
       </c>
       <c r="H15">
-        <v>-0.515</v>
+        <v>-0.395</v>
       </c>
       <c r="I15">
-        <v>0.607</v>
+        <v>0.6929999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -11421,10 +11415,10 @@
         <v>0.017</v>
       </c>
       <c r="H16">
-        <v>0.5570000000000001</v>
+        <v>0.422</v>
       </c>
       <c r="I16">
-        <v>0.578</v>
+        <v>0.673</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -11450,10 +11444,10 @@
         <v>0.006</v>
       </c>
       <c r="H17">
-        <v>0.2</v>
+        <v>0.232</v>
       </c>
       <c r="I17">
-        <v>0.842</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -11479,10 +11473,10 @@
         <v>0.04</v>
       </c>
       <c r="H18">
-        <v>1.268</v>
+        <v>1.092</v>
       </c>
       <c r="I18">
-        <v>0.206</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -11508,10 +11502,10 @@
         <v>0.053</v>
       </c>
       <c r="H19">
-        <v>1.672</v>
+        <v>1.407</v>
       </c>
       <c r="I19">
-        <v>0.096</v>
+        <v>0.159</v>
       </c>
     </row>
   </sheetData>
@@ -11597,10 +11591,10 @@
         <v>-3.621</v>
       </c>
       <c r="I2">
-        <v>-0.853</v>
+        <v>-0.631</v>
       </c>
       <c r="J2">
-        <v>0.395</v>
+        <v>0.528</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11629,10 +11623,10 @@
         <v>3.459</v>
       </c>
       <c r="I3">
-        <v>0.765</v>
+        <v>0.624</v>
       </c>
       <c r="J3">
-        <v>0.445</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11661,10 +11655,10 @@
         <v>-0.91</v>
       </c>
       <c r="I4">
-        <v>-0.187</v>
+        <v>-0.146</v>
       </c>
       <c r="J4">
-        <v>0.852</v>
+        <v>0.884</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11696,7 +11690,7 @@
         <v>-1.249</v>
       </c>
       <c r="J5">
-        <v>0.213</v>
+        <v>0.212</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11725,10 +11719,10 @@
         <v>2.336</v>
       </c>
       <c r="I6">
-        <v>0.421</v>
+        <v>0.344</v>
       </c>
       <c r="J6">
-        <v>0.675</v>
+        <v>0.731</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11757,10 +11751,10 @@
         <v>2.278</v>
       </c>
       <c r="I7">
-        <v>0.412</v>
+        <v>0.321</v>
       </c>
       <c r="J7">
-        <v>0.681</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11786,13 +11780,13 @@
         <v>0.03</v>
       </c>
       <c r="H8">
-        <v>1.794</v>
+        <v>1.802</v>
       </c>
       <c r="I8">
-        <v>1.191</v>
+        <v>1.062</v>
       </c>
       <c r="J8">
-        <v>0.235</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11821,10 +11815,10 @@
         <v>-1.195</v>
       </c>
       <c r="I9">
-        <v>-0.739</v>
+        <v>-0.715</v>
       </c>
       <c r="J9">
-        <v>0.461</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11853,10 +11847,10 @@
         <v>-0.368</v>
       </c>
       <c r="I10">
-        <v>-0.187</v>
+        <v>-0.16</v>
       </c>
       <c r="J10">
-        <v>0.852</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11885,10 +11879,10 @@
         <v>2.498</v>
       </c>
       <c r="I11">
-        <v>1.212</v>
+        <v>1.613</v>
       </c>
       <c r="J11">
-        <v>0.227</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11917,10 +11911,10 @@
         <v>-0.268</v>
       </c>
       <c r="I12">
-        <v>-0.132</v>
+        <v>-0.118</v>
       </c>
       <c r="J12">
-        <v>0.895</v>
+        <v>0.906</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11949,10 +11943,10 @@
         <v>-0.097</v>
       </c>
       <c r="I13">
-        <v>-0.047</v>
+        <v>-0.041</v>
       </c>
       <c r="J13">
-        <v>0.963</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11981,10 +11975,10 @@
         <v>-0.002</v>
       </c>
       <c r="I14">
-        <v>-0.041</v>
+        <v>-0.045</v>
       </c>
       <c r="J14">
-        <v>0.968</v>
+        <v>0.964</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12013,10 +12007,10 @@
         <v>-0.011</v>
       </c>
       <c r="I15">
-        <v>-0.269</v>
+        <v>-0.344</v>
       </c>
       <c r="J15">
-        <v>0.788</v>
+        <v>0.731</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12045,10 +12039,10 @@
         <v>0.002</v>
       </c>
       <c r="I16">
-        <v>0.052</v>
+        <v>0.042</v>
       </c>
       <c r="J16">
-        <v>0.958</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12077,10 +12071,10 @@
         <v>-0.041</v>
       </c>
       <c r="I17">
-        <v>-1.007</v>
+        <v>-1.508</v>
       </c>
       <c r="J17">
-        <v>0.315</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12109,10 +12103,10 @@
         <v>-0.031</v>
       </c>
       <c r="I18">
-        <v>-0.78</v>
+        <v>-1.137</v>
       </c>
       <c r="J18">
-        <v>0.436</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12141,10 +12135,10 @@
         <v>0.005</v>
       </c>
       <c r="I19">
-        <v>0.127</v>
+        <v>0.159</v>
       </c>
       <c r="J19">
-        <v>0.899</v>
+        <v>0.874</v>
       </c>
     </row>
   </sheetData>
@@ -12230,10 +12224,10 @@
         <v>-6.29</v>
       </c>
       <c r="I2">
-        <v>-1.276</v>
+        <v>-1.037</v>
       </c>
       <c r="J2">
-        <v>0.204</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12262,10 +12256,10 @@
         <v>4.659</v>
       </c>
       <c r="I3">
-        <v>0.885</v>
+        <v>0.713</v>
       </c>
       <c r="J3">
-        <v>0.377</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12294,10 +12288,10 @@
         <v>3.531</v>
       </c>
       <c r="I4">
-        <v>0.625</v>
+        <v>0.579</v>
       </c>
       <c r="J4">
-        <v>0.533</v>
+        <v>0.5629999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12326,10 +12320,10 @@
         <v>-2.158</v>
       </c>
       <c r="I5">
-        <v>-0.336</v>
+        <v>-0.35</v>
       </c>
       <c r="J5">
-        <v>0.738</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12358,10 +12352,10 @@
         <v>2.888</v>
       </c>
       <c r="I6">
-        <v>0.446</v>
+        <v>0.45</v>
       </c>
       <c r="J6">
-        <v>0.656</v>
+        <v>0.653</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12390,10 +12384,10 @@
         <v>0.28</v>
       </c>
       <c r="I7">
-        <v>0.043</v>
+        <v>0.034</v>
       </c>
       <c r="J7">
-        <v>0.965</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12419,13 +12413,13 @@
         <v>0.023</v>
       </c>
       <c r="H8">
-        <v>3.272</v>
+        <v>3.305</v>
       </c>
       <c r="I8">
-        <v>1.875</v>
+        <v>1.554</v>
       </c>
       <c r="J8">
-        <v>0.062</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12454,10 +12448,10 @@
         <v>-1.928</v>
       </c>
       <c r="I9">
-        <v>-1.025</v>
+        <v>-0.9360000000000001</v>
       </c>
       <c r="J9">
-        <v>0.307</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12486,10 +12480,10 @@
         <v>-1.819</v>
       </c>
       <c r="I10">
-        <v>-0.795</v>
+        <v>-0.6889999999999999</v>
       </c>
       <c r="J10">
-        <v>0.428</v>
+        <v>0.491</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12518,10 +12512,10 @@
         <v>1.064</v>
       </c>
       <c r="I11">
-        <v>0.442</v>
+        <v>0.593</v>
       </c>
       <c r="J11">
-        <v>0.659</v>
+        <v>0.553</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12550,10 +12544,10 @@
         <v>-0.309</v>
       </c>
       <c r="I12">
-        <v>-0.13</v>
+        <v>-0.135</v>
       </c>
       <c r="J12">
-        <v>0.897</v>
+        <v>0.892</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12582,10 +12576,10 @@
         <v>0.212</v>
       </c>
       <c r="I13">
-        <v>0.08799999999999999</v>
+        <v>0.079</v>
       </c>
       <c r="J13">
-        <v>0.93</v>
+        <v>0.9370000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12614,10 +12608,10 @@
         <v>-0.027</v>
       </c>
       <c r="I14">
-        <v>-0.5590000000000001</v>
+        <v>-0.724</v>
       </c>
       <c r="J14">
-        <v>0.577</v>
+        <v>0.469</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12646,10 +12640,10 @@
         <v>0.023</v>
       </c>
       <c r="I15">
-        <v>0.499</v>
+        <v>0.522</v>
       </c>
       <c r="J15">
-        <v>0.619</v>
+        <v>0.602</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12678,10 +12672,10 @@
         <v>0.002</v>
       </c>
       <c r="I16">
-        <v>0.051</v>
+        <v>0.039</v>
       </c>
       <c r="J16">
-        <v>0.959</v>
+        <v>0.969</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12710,10 +12704,10 @@
         <v>-0.013</v>
       </c>
       <c r="I17">
-        <v>-0.278</v>
+        <v>-0.396</v>
       </c>
       <c r="J17">
-        <v>0.781</v>
+        <v>0.6919999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12742,10 +12736,10 @@
         <v>-0.035</v>
       </c>
       <c r="I18">
-        <v>-0.754</v>
+        <v>-0.967</v>
       </c>
       <c r="J18">
-        <v>0.452</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12774,10 +12768,10 @@
         <v>-0.025</v>
       </c>
       <c r="I19">
-        <v>-0.514</v>
+        <v>-0.583</v>
       </c>
       <c r="J19">
-        <v>0.608</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -12863,10 +12857,10 @@
         <v>-3.513</v>
       </c>
       <c r="I2">
-        <v>-0.637</v>
+        <v>-0.67</v>
       </c>
       <c r="J2">
-        <v>0.525</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12895,10 +12889,10 @@
         <v>2.957</v>
       </c>
       <c r="I3">
-        <v>0.503</v>
+        <v>0.498</v>
       </c>
       <c r="J3">
-        <v>0.615</v>
+        <v>0.618</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12927,10 +12921,10 @@
         <v>4.796</v>
       </c>
       <c r="I4">
-        <v>0.762</v>
+        <v>0.89</v>
       </c>
       <c r="J4">
-        <v>0.447</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12959,10 +12953,10 @@
         <v>-1.451</v>
       </c>
       <c r="I5">
-        <v>-0.202</v>
+        <v>-0.167</v>
       </c>
       <c r="J5">
-        <v>0.84</v>
+        <v>0.867</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12991,10 +12985,10 @@
         <v>5.136</v>
       </c>
       <c r="I6">
-        <v>0.713</v>
+        <v>0.752</v>
       </c>
       <c r="J6">
-        <v>0.477</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -13023,10 +13017,10 @@
         <v>-2.562</v>
       </c>
       <c r="I7">
-        <v>-0.357</v>
+        <v>-0.269</v>
       </c>
       <c r="J7">
-        <v>0.721</v>
+        <v>0.788</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -13052,13 +13046,13 @@
         <v>0.018</v>
       </c>
       <c r="H8">
-        <v>2.945</v>
+        <v>2.952</v>
       </c>
       <c r="I8">
-        <v>1.509</v>
+        <v>1.598</v>
       </c>
       <c r="J8">
-        <v>0.133</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -13087,10 +13081,10 @@
         <v>-0.826</v>
       </c>
       <c r="I9">
-        <v>-0.393</v>
+        <v>-0.364</v>
       </c>
       <c r="J9">
-        <v>0.695</v>
+        <v>0.716</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -13119,10 +13113,10 @@
         <v>-1.519</v>
       </c>
       <c r="I10">
-        <v>-0.595</v>
+        <v>-0.629</v>
       </c>
       <c r="J10">
-        <v>0.552</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -13151,10 +13145,10 @@
         <v>0.176</v>
       </c>
       <c r="I11">
-        <v>0.066</v>
+        <v>0.075</v>
       </c>
       <c r="J11">
-        <v>0.948</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -13183,10 +13177,10 @@
         <v>-1.345</v>
       </c>
       <c r="I12">
-        <v>-0.509</v>
+        <v>-0.553</v>
       </c>
       <c r="J12">
-        <v>0.611</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -13215,10 +13209,10 @@
         <v>1.057</v>
       </c>
       <c r="I13">
-        <v>0.394</v>
+        <v>0.321</v>
       </c>
       <c r="J13">
-        <v>0.694</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -13247,10 +13241,10 @@
         <v>-0.059</v>
       </c>
       <c r="I14">
-        <v>-1.117</v>
+        <v>-1.661</v>
       </c>
       <c r="J14">
-        <v>0.265</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -13279,10 +13273,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="I15">
-        <v>0.169</v>
+        <v>0.159</v>
       </c>
       <c r="J15">
-        <v>0.866</v>
+        <v>0.874</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -13311,10 +13305,10 @@
         <v>-0.021</v>
       </c>
       <c r="I16">
-        <v>-0.427</v>
+        <v>-0.322</v>
       </c>
       <c r="J16">
-        <v>0.67</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -13343,10 +13337,10 @@
         <v>-0.029</v>
       </c>
       <c r="I17">
-        <v>-0.55</v>
+        <v>-0.575</v>
       </c>
       <c r="J17">
-        <v>0.583</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -13375,10 +13369,10 @@
         <v>-0.049</v>
       </c>
       <c r="I18">
-        <v>-0.945</v>
+        <v>-1.343</v>
       </c>
       <c r="J18">
-        <v>0.346</v>
+        <v>0.179</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -13407,10 +13401,10 @@
         <v>-0.061</v>
       </c>
       <c r="I19">
-        <v>-1.148</v>
+        <v>-1.504</v>
       </c>
       <c r="J19">
-        <v>0.253</v>
+        <v>0.133</v>
       </c>
     </row>
   </sheetData>
@@ -13496,10 +13490,10 @@
         <v>-4.897</v>
       </c>
       <c r="I2">
-        <v>-1.51</v>
+        <v>-1.055</v>
       </c>
       <c r="J2">
-        <v>0.133</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -13528,10 +13522,10 @@
         <v>1.042</v>
       </c>
       <c r="I3">
-        <v>0.305</v>
+        <v>0.292</v>
       </c>
       <c r="J3">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13560,10 +13554,10 @@
         <v>-1.817</v>
       </c>
       <c r="I4">
-        <v>-0.488</v>
+        <v>-0.444</v>
       </c>
       <c r="J4">
-        <v>0.626</v>
+        <v>0.657</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -13592,10 +13586,10 @@
         <v>1.291</v>
       </c>
       <c r="I5">
-        <v>0.311</v>
+        <v>0.344</v>
       </c>
       <c r="J5">
-        <v>0.756</v>
+        <v>0.731</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -13624,10 +13618,10 @@
         <v>5.356</v>
       </c>
       <c r="I6">
-        <v>1.277</v>
+        <v>1.245</v>
       </c>
       <c r="J6">
-        <v>0.203</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -13656,10 +13650,10 @@
         <v>4.845</v>
       </c>
       <c r="I7">
-        <v>1.162</v>
+        <v>1.342</v>
       </c>
       <c r="J7">
-        <v>0.247</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -13685,13 +13679,13 @@
         <v>0.056</v>
       </c>
       <c r="H8">
-        <v>2.229</v>
+        <v>2.232</v>
       </c>
       <c r="I8">
-        <v>1.97</v>
+        <v>1.409</v>
       </c>
       <c r="J8">
-        <v>0.05</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -13720,10 +13714,10 @@
         <v>-0.185</v>
       </c>
       <c r="I9">
-        <v>-0.157</v>
+        <v>-0.164</v>
       </c>
       <c r="J9">
-        <v>0.875</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -13752,10 +13746,10 @@
         <v>0.198</v>
       </c>
       <c r="I10">
-        <v>0.134</v>
+        <v>0.14</v>
       </c>
       <c r="J10">
-        <v>0.894</v>
+        <v>0.888</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -13784,10 +13778,10 @@
         <v>-0.429</v>
       </c>
       <c r="I11">
-        <v>-0.279</v>
+        <v>-0.294</v>
       </c>
       <c r="J11">
-        <v>0.781</v>
+        <v>0.769</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -13819,7 +13813,7 @@
         <v>-1.429</v>
       </c>
       <c r="J12">
-        <v>0.155</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -13848,10 +13842,10 @@
         <v>-1.287</v>
       </c>
       <c r="I13">
-        <v>-0.83</v>
+        <v>-1.032</v>
       </c>
       <c r="J13">
-        <v>0.408</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -13880,10 +13874,10 @@
         <v>-0.003</v>
       </c>
       <c r="I14">
-        <v>-0.104</v>
+        <v>-0.142</v>
       </c>
       <c r="J14">
-        <v>0.917</v>
+        <v>0.887</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -13912,10 +13906,10 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="I15">
-        <v>-0.293</v>
+        <v>-0.296</v>
       </c>
       <c r="J15">
-        <v>0.77</v>
+        <v>0.767</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -13944,10 +13938,10 @@
         <v>0.014</v>
       </c>
       <c r="I16">
-        <v>0.48</v>
+        <v>0.344</v>
       </c>
       <c r="J16">
-        <v>0.632</v>
+        <v>0.731</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -13976,10 +13970,10 @@
         <v>-0.016</v>
       </c>
       <c r="I17">
-        <v>-0.522</v>
+        <v>-0.525</v>
       </c>
       <c r="J17">
-        <v>0.603</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -14008,10 +14002,10 @@
         <v>0.034</v>
       </c>
       <c r="I18">
-        <v>1.123</v>
+        <v>1.09</v>
       </c>
       <c r="J18">
-        <v>0.263</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -14040,10 +14034,10 @@
         <v>0.048</v>
       </c>
       <c r="I19">
-        <v>1.553</v>
+        <v>1.334</v>
       </c>
       <c r="J19">
-        <v>0.122</v>
+        <v>0.182</v>
       </c>
     </row>
   </sheetData>
